--- a/dataset/results/residuals/old_summary.xlsx
+++ b/dataset/results/residuals/old_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KIM\Desktop\GraduateSchool\예측모델\팀플\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B57E2E-C08B-420D-B061-47703D413A8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514EE9DE-7DA8-4A9F-A7DC-AC906AA6A827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7430" yWindow="2650" windowWidth="19320" windowHeight="16980" xr2:uid="{AFECDA73-2A5C-4959-A318-D49704BC41B6}"/>
+    <workbookView xWindow="7640" yWindow="2610" windowWidth="19200" windowHeight="10310" xr2:uid="{AFECDA73-2A5C-4959-A318-D49704BC41B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -488,10 +488,10 @@
         <v>27715.8</v>
       </c>
       <c r="D2">
-        <v>24431</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E2">
-        <v>48851</v>
+        <v>33526.371774948399</v>
       </c>
       <c r="F2">
         <v>26666.9168307336</v>
@@ -514,10 +514,10 @@
         <v>27715.8</v>
       </c>
       <c r="D3">
-        <v>35420</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E3">
-        <v>51751.040000000001</v>
+        <v>34169.320926963097</v>
       </c>
       <c r="F3">
         <v>26675.353480092199</v>
@@ -540,10 +540,10 @@
         <v>27715.8</v>
       </c>
       <c r="D4">
-        <v>39044.300000000003</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E4">
-        <v>42837.460399999902</v>
+        <v>34812.270078977803</v>
       </c>
       <c r="F4">
         <v>26466.1210166173</v>
@@ -566,10 +566,10 @@
         <v>27715.8</v>
       </c>
       <c r="D5">
-        <v>32046.53</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E5">
-        <v>45441.121004000001</v>
+        <v>35455.219230992501</v>
       </c>
       <c r="F5">
         <v>27259.0349832631</v>
@@ -592,10 +592,10 @@
         <v>27715.8</v>
       </c>
       <c r="D6">
-        <v>35470.553</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E6">
-        <v>49833.916174040001</v>
+        <v>36098.1683830072</v>
       </c>
       <c r="F6">
         <v>28195.543442287901</v>
@@ -618,10 +618,10 @@
         <v>27715.8</v>
       </c>
       <c r="D7">
-        <v>40354.355300000003</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E7">
-        <v>50936.053235380299</v>
+        <v>36741.117535021898</v>
       </c>
       <c r="F7">
         <v>26271.077876417599</v>
@@ -644,10 +644,10 @@
         <v>27715.8</v>
       </c>
       <c r="D8">
-        <v>42176.535530000001</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E8">
-        <v>62023.472150330199</v>
+        <v>37384.066687036597</v>
       </c>
       <c r="F8">
         <v>26874.6862234082</v>
@@ -670,10 +670,10 @@
         <v>27715.8</v>
       </c>
       <c r="D9">
-        <v>53038.153552999996</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E9">
-        <v>61219.401548295398</v>
+        <v>38027.015839051302</v>
       </c>
       <c r="F9">
         <v>26288.117952997702</v>
@@ -696,10 +696,10 @@
         <v>27715.8</v>
       </c>
       <c r="D10">
-        <v>53021.815355300001</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E10">
-        <v>18411.188348745301</v>
+        <v>38669.964991066001</v>
       </c>
       <c r="F10">
         <v>27325.960070472</v>
@@ -722,10 +722,10 @@
         <v>27715.8</v>
       </c>
       <c r="D11">
-        <v>14847.5815355299</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E11">
-        <v>47720.510077403298</v>
+        <v>39312.914143080801</v>
       </c>
       <c r="F11">
         <v>26518.000752961299</v>
@@ -748,10 +748,10 @@
         <v>27715.8</v>
       </c>
       <c r="D12">
-        <v>42205.258153552997</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E12">
-        <v>55229.156343302799</v>
+        <v>39955.8632950955</v>
       </c>
       <c r="F12">
         <v>27453.224720456099</v>
@@ -774,10 +774,10 @@
         <v>27715.8</v>
       </c>
       <c r="D13">
-        <v>49305.125815355299</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E13">
-        <v>49043.256898995402</v>
+        <v>40598.812447110198</v>
       </c>
       <c r="F13">
         <v>25759.967271923299</v>
@@ -800,10 +800,10 @@
         <v>27715.8</v>
       </c>
       <c r="D14">
-        <v>44129.112581535497</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E14">
-        <v>46955.483833655097</v>
+        <v>41241.761599124897</v>
       </c>
       <c r="F14">
         <v>24863.797140936498</v>
@@ -826,10 +826,10 @@
         <v>27715.8</v>
       </c>
       <c r="D15">
-        <v>42725.0112581535</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E15">
-        <v>37091.462982092104</v>
+        <v>41884.710751139603</v>
       </c>
       <c r="F15">
         <v>24872.2337902951</v>
@@ -852,10 +852,10 @@
         <v>27715.8</v>
       </c>
       <c r="D16">
-        <v>34166.001125815303</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E16">
-        <v>44889.9192285475</v>
+        <v>42527.659903154301</v>
       </c>
       <c r="F16">
         <v>24663.0013268201</v>
@@ -878,10 +878,10 @@
         <v>27715.8</v>
       </c>
       <c r="D17">
-        <v>41613.500112581503</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E17">
-        <v>50201.362122623803</v>
+        <v>43170.609055168999</v>
       </c>
       <c r="F17">
         <v>25455.915293466001</v>
@@ -904,10 +904,10 @@
         <v>27715.8</v>
       </c>
       <c r="D18">
-        <v>46678.250011258096</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E18">
-        <v>65195.293820995299</v>
+        <v>43813.558207183698</v>
       </c>
       <c r="F18">
         <v>26392.423752490799</v>
@@ -930,10 +930,10 @@
         <v>27715.8</v>
       </c>
       <c r="D19">
-        <v>60574.925001125797</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E19">
-        <v>28933.4505469428</v>
+        <v>44456.507359198396</v>
       </c>
       <c r="F19">
         <v>24467.958186620501</v>
@@ -956,10 +956,10 @@
         <v>27715.8</v>
       </c>
       <c r="D20">
-        <v>27887.892500112499</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E20">
-        <v>54173.465670312697</v>
+        <v>45099.456511213102</v>
       </c>
       <c r="F20">
         <v>25071.566533611101</v>
@@ -982,10 +982,10 @@
         <v>27715.8</v>
       </c>
       <c r="D21">
-        <v>51243.889250011198</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E21">
-        <v>66488.165272321596</v>
+        <v>45742.405663227801</v>
       </c>
       <c r="F21">
         <v>24484.998263200599</v>
@@ -1008,10 +1008,10 @@
         <v>27715.8</v>
       </c>
       <c r="D22">
-        <v>62507.488925001097</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E22">
-        <v>68144.2403580135</v>
+        <v>46385.354815242499</v>
       </c>
       <c r="F22">
         <v>25522.840380674799</v>
@@ -1034,10 +1034,10 @@
         <v>27715.8</v>
       </c>
       <c r="D23">
-        <v>64243.148892500103</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E23">
-        <v>67233.606234361505</v>
+        <v>47028.303967257198</v>
       </c>
       <c r="F23">
         <v>24714.881063164201</v>
@@ -1060,10 +1060,10 @@
         <v>27715.8</v>
       </c>
       <c r="D24">
-        <v>63741.714889249997</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E24">
-        <v>73072.138260903797</v>
+        <v>47671.253119271903</v>
       </c>
       <c r="F24">
         <v>25650.105030659</v>
@@ -1086,10 +1086,10 @@
         <v>27715.8</v>
       </c>
       <c r="D25">
-        <v>69372.371488924997</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E25">
-        <v>76806.699020076601</v>
+        <v>48314.202271286602</v>
       </c>
       <c r="F25">
         <v>23956.8475821262</v>
@@ -1112,10 +1112,10 @@
         <v>27715.8</v>
       </c>
       <c r="D26">
-        <v>73051.237148892498</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E26">
-        <v>51310.222184186998</v>
+        <v>48957.1514233013</v>
       </c>
       <c r="F26">
         <v>23060.677451139301</v>
@@ -1138,10 +1138,10 @@
         <v>27715.8</v>
       </c>
       <c r="D27">
-        <v>50174.8237148892</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E27">
-        <v>60854.124504021202</v>
+        <v>49600.100575316101</v>
       </c>
       <c r="F27">
         <v>23069.114100498002</v>
@@ -1164,10 +1164,10 @@
         <v>27715.8</v>
       </c>
       <c r="D28">
-        <v>59182.182371488903</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E28">
-        <v>66197.1735306427</v>
+        <v>50243.049727330799</v>
       </c>
       <c r="F28">
         <v>22859.881637023002</v>
@@ -1190,10 +1190,10 @@
         <v>27715.8</v>
       </c>
       <c r="D29">
-        <v>64127.518237148797</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E29">
-        <v>70310.132815546996</v>
+        <v>50885.998879345498</v>
       </c>
       <c r="F29">
         <v>23652.795603668899</v>
@@ -1216,10 +1216,10 @@
         <v>27715.8</v>
       </c>
       <c r="D30">
-        <v>67999.751823714803</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E30">
-        <v>71406.586790638205</v>
+        <v>51528.948031360203</v>
       </c>
       <c r="F30">
         <v>24589.3040626937</v>
@@ -1242,10 +1242,10 @@
         <v>27715.8</v>
       </c>
       <c r="D31">
-        <v>69163.6751823714</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E31">
-        <v>76600.729376989897</v>
+        <v>52171.897183374902</v>
       </c>
       <c r="F31">
         <v>22664.838496823399</v>
@@ -1268,10 +1268,10 @@
         <v>27715.8</v>
       </c>
       <c r="D32">
-        <v>74075.267518237102</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E32">
-        <v>72622.597991696006</v>
+        <v>52814.8463353896</v>
       </c>
       <c r="F32">
         <v>23268.446843813999</v>
@@ -1294,10 +1294,10 @@
         <v>27715.8</v>
       </c>
       <c r="D33">
-        <v>70639.726751823706</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E33">
-        <v>73864.261033913906</v>
+        <v>53457.795487404299</v>
       </c>
       <c r="F33">
         <v>22681.878573403501</v>
@@ -1320,10 +1320,10 @@
         <v>27715.8</v>
       </c>
       <c r="D34">
-        <v>71980.072675182295</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E34">
-        <v>76531.983845083494</v>
+        <v>54100.744639418997</v>
       </c>
       <c r="F34">
         <v>23719.720690877701</v>
@@ -1346,10 +1346,10 @@
         <v>27715.8</v>
       </c>
       <c r="D35">
-        <v>74568.407267518196</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E35">
-        <v>68281.427580142903</v>
+        <v>54743.693791433703</v>
       </c>
       <c r="F35">
         <v>22911.761373367099</v>
@@ -1372,10 +1372,10 @@
         <v>27715.8</v>
       </c>
       <c r="D36">
-        <v>67221.340726751805</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E36">
-        <v>65016.433471436001</v>
+        <v>55386.642943448402</v>
       </c>
       <c r="F36">
         <v>23846.985340861898</v>
@@ -1398,10 +1398,10 @@
         <v>27715.8</v>
       </c>
       <c r="D37">
-        <v>64422.034072675102</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E37">
-        <v>68868.415048135997</v>
+        <v>56029.5920954631</v>
       </c>
       <c r="F37">
         <v>22153.727892329101</v>
@@ -1424,10 +1424,10 @@
         <v>27715.8</v>
       </c>
       <c r="D38">
-        <v>68014.803407267493</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E38">
-        <v>74431.005851473805</v>
+        <v>56672.541247477799</v>
       </c>
       <c r="F38">
         <v>21257.557761342199</v>
@@ -1450,10 +1450,10 @@
         <v>27715.8</v>
       </c>
       <c r="D39">
-        <v>73117.980340726703</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E39">
-        <v>74106.344405174896</v>
+        <v>57315.490399492497</v>
       </c>
       <c r="F39">
         <v>21265.9944107009</v>
@@ -1476,10 +1476,10 @@
         <v>27715.8</v>
       </c>
       <c r="D40">
-        <v>72888.498034072603</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E40">
-        <v>74475.787264079307</v>
+        <v>57958.439551507203</v>
       </c>
       <c r="F40">
         <v>21056.761947225899</v>
@@ -1502,10 +1502,10 @@
         <v>27715.8</v>
       </c>
       <c r="D41">
-        <v>73332.649803407199</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E41">
-        <v>76036.900696202603</v>
+        <v>58601.388703521901</v>
       </c>
       <c r="F41">
         <v>21849.675913871801</v>
@@ -1528,10 +1528,10 @@
         <v>27715.8</v>
       </c>
       <c r="D42">
-        <v>74852.164980340705</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E42">
-        <v>76711.420976756694</v>
+        <v>59244.3378555366</v>
       </c>
       <c r="F42">
         <v>22786.1843728965</v>
@@ -1554,10 +1554,10 @@
         <v>27715.8</v>
       </c>
       <c r="D43">
-        <v>75558.516498034005</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E43">
-        <v>64503.195116903997</v>
+        <v>59887.2870075514</v>
       </c>
       <c r="F43">
         <v>20861.7188070263</v>
@@ -1580,10 +1580,10 @@
         <v>27715.8</v>
       </c>
       <c r="D44">
-        <v>64557.351649803401</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E44">
-        <v>77303.544970397401</v>
+        <v>60530.236159566099</v>
       </c>
       <c r="F44">
         <v>21465.327154016901</v>
@@ -1606,10 +1606,10 @@
         <v>27715.8</v>
       </c>
       <c r="D45">
-        <v>76299.335164980293</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E45">
-        <v>84742.680908410897</v>
+        <v>61173.185311580797</v>
       </c>
       <c r="F45">
         <v>20878.758883606301</v>
@@ -1632,10 +1632,10 @@
         <v>27715.8</v>
       </c>
       <c r="D46">
-        <v>83048.133516497997</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E46">
-        <v>91332.663220455303</v>
+        <v>61816.134463595503</v>
       </c>
       <c r="F46">
         <v>21916.601001080599</v>
@@ -1658,10 +1658,10 @@
         <v>27715.8</v>
       </c>
       <c r="D47">
-        <v>89114.913351649797</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E47">
-        <v>86091.921761818798</v>
+        <v>62459.083615610201</v>
       </c>
       <c r="F47">
         <v>21108.64168357</v>
@@ -1684,10 +1684,10 @@
         <v>27715.8</v>
       </c>
       <c r="D48">
-        <v>84484.491335164901</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E48">
-        <v>37546.014657391403</v>
+        <v>63102.0327676249</v>
       </c>
       <c r="F48">
         <v>22043.865651064702</v>
@@ -1710,10 +1710,10 @@
         <v>27715.8</v>
       </c>
       <c r="D49">
-        <v>40538.8491335164</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E49">
-        <v>89122.592627783495</v>
+        <v>63744.981919639598</v>
       </c>
       <c r="F49">
         <v>20350.608202531999</v>
@@ -1736,10 +1736,10 @@
         <v>27715.8</v>
       </c>
       <c r="D50">
-        <v>87599.984913351596</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E50">
-        <v>31794.367088322098</v>
+        <v>64387.931071654297</v>
       </c>
       <c r="F50">
         <v>19454.438071545101</v>
@@ -1762,10 +1762,10 @@
         <v>27715.8</v>
       </c>
       <c r="D51">
-        <v>35197.4984913351</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E51">
-        <v>52330.261496427003</v>
+        <v>65030.880223669003</v>
       </c>
       <c r="F51">
         <v>19462.874720903801</v>
@@ -1788,10 +1788,10 @@
         <v>27715.8</v>
       </c>
       <c r="D52">
-        <v>54035.849849133498</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E52">
-        <v>57316.5674025591</v>
+        <v>65673.829375683694</v>
       </c>
       <c r="F52">
         <v>19253.642257428801</v>
@@ -1814,10 +1814,10 @@
         <v>27715.8</v>
       </c>
       <c r="D53">
-        <v>58274.984984913302</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E53">
-        <v>50608.936926941897</v>
+        <v>66316.778527698407</v>
       </c>
       <c r="F53">
         <v>20046.556224074699</v>
@@ -1840,10 +1840,10 @@
         <v>27715.8</v>
       </c>
       <c r="D54">
-        <v>52030.798498491298</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E54">
-        <v>63297.419555955399</v>
+        <v>66959.727679713105</v>
       </c>
       <c r="F54">
         <v>20983.064683099401</v>
@@ -1866,10 +1866,10 @@
         <v>27715.8</v>
       </c>
       <c r="D55">
-        <v>63491.579849849099</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E55">
-        <v>72735.170058820804</v>
+        <v>67602.676831727804</v>
       </c>
       <c r="F55">
         <v>19058.599117229202</v>
@@ -1892,10 +1892,10 @@
         <v>27715.8</v>
       </c>
       <c r="D56">
-        <v>71943.857984984905</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E56">
-        <v>79172.889803813494</v>
+        <v>68245.625983742502</v>
       </c>
       <c r="F56">
         <v>19662.207464219799</v>
@@ -1918,10 +1918,10 @@
         <v>27715.8</v>
       </c>
       <c r="D57">
-        <v>77771.485798498499</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E57">
-        <v>83888.001695969506</v>
+        <v>68888.575135757201</v>
       </c>
       <c r="F57">
         <v>19075.639193809198</v>
@@ -1944,10 +1944,10 @@
         <v>27715.8</v>
       </c>
       <c r="D58">
-        <v>82117.148579849803</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E58">
-        <v>78847.102732547894</v>
+        <v>69531.524287771899</v>
       </c>
       <c r="F58">
         <v>20113.4813112835</v>
@@ -1970,10 +1970,10 @@
         <v>27715.8</v>
       </c>
       <c r="D59">
-        <v>77645.814857984995</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E59">
-        <v>87488.263590276401</v>
+        <v>70174.4734397867</v>
       </c>
       <c r="F59">
         <v>19305.5219937728</v>
@@ -1996,10 +1996,10 @@
         <v>27715.8</v>
       </c>
       <c r="D60">
-        <v>85651.481485798504</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E60">
-        <v>90530.265952924397</v>
+        <v>70817.422591801398</v>
       </c>
       <c r="F60">
         <v>20240.745961267599</v>
@@ -2022,10 +2022,10 @@
         <v>27715.8</v>
       </c>
       <c r="D61">
-        <v>88509.448148579802</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E61">
-        <v>98650.672253426004</v>
+        <v>71460.371743816097</v>
       </c>
       <c r="F61">
         <v>18547.488512734799</v>
@@ -2048,10 +2048,10 @@
         <v>27715.8</v>
       </c>
       <c r="D62">
-        <v>96040.244814857899</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E62">
-        <v>95711.362380667793</v>
+        <v>72103.320895830795</v>
       </c>
       <c r="F62">
         <v>17651.318381747999</v>
@@ -2074,10 +2074,10 @@
         <v>27715.8</v>
       </c>
       <c r="D63">
-        <v>93528.124481485793</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E63">
-        <v>90502.228779131896</v>
+        <v>72746.270047845494</v>
       </c>
       <c r="F63">
         <v>17659.755031106601</v>
@@ -2100,10 +2100,10 @@
         <v>27715.8</v>
       </c>
       <c r="D64">
-        <v>89010.012448148496</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E64">
-        <v>90573.044828856393</v>
+        <v>73389.219199860207</v>
       </c>
       <c r="F64">
         <v>17450.522567631699</v>
@@ -2126,10 +2126,10 @@
         <v>27715.8</v>
       </c>
       <c r="D65">
-        <v>89259.301244814793</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E65">
-        <v>94713.462399231794</v>
+        <v>74032.168351874905</v>
       </c>
       <c r="F65">
         <v>18243.436534277502</v>
@@ -2152,10 +2152,10 @@
         <v>27715.8</v>
       </c>
       <c r="D66">
-        <v>93147.030124481404</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E66">
-        <v>89719.002540338493</v>
+        <v>74675.117503889604</v>
       </c>
       <c r="F66">
         <v>19179.944993302299</v>
@@ -2178,10 +2178,10 @@
         <v>27715.8</v>
       </c>
       <c r="D67">
-        <v>88711.803012448101</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E67">
-        <v>89423.136325818603</v>
+        <v>75318.066655904302</v>
       </c>
       <c r="F67">
         <v>17255.479427432099</v>
@@ -2204,10 +2204,10 @@
         <v>27715.8</v>
       </c>
       <c r="D68">
-        <v>88576.080301244801</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E68">
-        <v>91379.117435042994</v>
+        <v>75961.015807919001</v>
       </c>
       <c r="F68">
         <v>17859.087774422602</v>
@@ -2230,10 +2230,10 @@
         <v>27715.8</v>
       </c>
       <c r="D69">
-        <v>90438.108030124393</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E69">
-        <v>64609.354976811497</v>
+        <v>76603.964959933699</v>
       </c>
       <c r="F69">
         <v>17272.5195040121</v>
@@ -2256,10 +2256,10 @@
         <v>27715.8</v>
       </c>
       <c r="D70">
-        <v>66170.410803012404</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E70">
-        <v>6514.9367830753999</v>
+        <v>77246.914111948397</v>
       </c>
       <c r="F70">
         <v>18310.361621486401</v>
@@ -2282,10 +2282,10 @@
         <v>27715.8</v>
       </c>
       <c r="D71">
-        <v>13457.0410803012</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E71">
-        <v>58551.830653224999</v>
+        <v>77889.863263963096</v>
       </c>
       <c r="F71">
         <v>17502.402303975701</v>
@@ -2308,10 +2308,10 @@
         <v>27715.8</v>
       </c>
       <c r="D72">
-        <v>60684.504108030102</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E72">
-        <v>74428.635281449693</v>
+        <v>78532.812415977794</v>
       </c>
       <c r="F72">
         <v>18437.626271470501</v>
@@ -2334,10 +2334,10 @@
         <v>27715.8</v>
       </c>
       <c r="D73">
-        <v>74506.250410802997</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E73">
-        <v>78297.938568941696</v>
+        <v>79175.761567992595</v>
       </c>
       <c r="F73">
         <v>16744.3688229377</v>
@@ -2360,10 +2360,10 @@
         <v>27715.8</v>
       </c>
       <c r="D74">
-        <v>77830.625041080304</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E74">
-        <v>89549.224426486093</v>
+        <v>79818.710720007293</v>
       </c>
       <c r="F74">
         <v>15848.1986919509</v>
@@ -2386,10 +2386,10 @@
         <v>27715.8</v>
       </c>
       <c r="D75">
-        <v>88047.762504108003</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E75">
-        <v>90607.732813856797</v>
+        <v>80461.659872022006</v>
       </c>
       <c r="F75">
         <v>15856.6353413095</v>
@@ -2412,10 +2412,10 @@
         <v>27715.8</v>
       </c>
       <c r="D76">
-        <v>89038.876250410802</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E76">
-        <v>15968.9676993467</v>
+        <v>81104.609024036705</v>
       </c>
       <c r="F76">
         <v>15647.4028778346</v>
@@ -2438,10 +2438,10 @@
         <v>27715.8</v>
       </c>
       <c r="D77">
-        <v>21307.687625040999</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E77">
-        <v>58567.594094954497</v>
+        <v>81747.558176051403</v>
       </c>
       <c r="F77">
         <v>16440.3168444804</v>
@@ -2464,10 +2464,10 @@
         <v>27715.8</v>
       </c>
       <c r="D78">
-        <v>60224.868762504098</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E78">
-        <v>88016.783265969396</v>
+        <v>82390.507328066102</v>
       </c>
       <c r="F78">
         <v>17376.8253035052</v>
@@ -2490,10 +2490,10 @@
         <v>27715.8</v>
       </c>
       <c r="D79">
-        <v>86526.586876250396</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E79">
-        <v>38929.481689133601</v>
+        <v>83033.4564800808</v>
       </c>
       <c r="F79">
         <v>15452.359737634901</v>
@@ -2516,10 +2516,10 @@
         <v>27715.8</v>
       </c>
       <c r="D80">
-        <v>41737.558687625002</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E80">
-        <v>52432.638179428002</v>
+        <v>83676.405632095499</v>
       </c>
       <c r="F80">
         <v>16055.9680846255</v>
@@ -2542,10 +2542,10 @@
         <v>27715.8</v>
       </c>
       <c r="D81">
-        <v>54174.1558687625</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E81">
-        <v>86438.046392308897</v>
+        <v>84319.354784110197</v>
       </c>
       <c r="F81">
         <v>15469.399814214999</v>
@@ -2568,10 +2568,10 @@
         <v>27715.8</v>
       </c>
       <c r="D82">
-        <v>84848.715586876206</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E82">
-        <v>95618.563038289198</v>
+        <v>84962.303936124896</v>
       </c>
       <c r="F82">
         <v>16507.241931689299</v>
@@ -2594,10 +2594,10 @@
         <v>27715.8</v>
       </c>
       <c r="D83">
-        <v>93021.871558687606</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E83">
-        <v>91817.774029441207</v>
+        <v>85605.253088139594</v>
       </c>
       <c r="F83">
         <v>15699.282614178601</v>
@@ -2620,10 +2620,10 @@
         <v>27715.8</v>
       </c>
       <c r="D84">
-        <v>89687.487155868701</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E84">
-        <v>103032.23546590599</v>
+        <v>86248.202240154307</v>
       </c>
       <c r="F84">
         <v>16634.506581673399</v>
@@ -2646,10 +2646,10 @@
         <v>27715.8</v>
       </c>
       <c r="D85">
-        <v>100099.14871558599</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E85">
-        <v>83303.8104176216</v>
+        <v>86891.151392169006</v>
       </c>
       <c r="F85">
         <v>14941.2491331406</v>
@@ -2672,10 +2672,10 @@
         <v>27715.8</v>
       </c>
       <c r="D86">
-        <v>82331.214871558594</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E86">
-        <v>93118.014975207203</v>
+        <v>87534.100544183704</v>
       </c>
       <c r="F86">
         <v>14045.0790021538</v>
@@ -2698,10 +2698,10 @@
         <v>27715.8</v>
       </c>
       <c r="D87">
-        <v>91511.021487155798</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E87">
-        <v>70253.934083197106</v>
+        <v>88177.049696198403</v>
       </c>
       <c r="F87">
         <v>14053.5156515124</v>
@@ -2724,10 +2724,10 @@
         <v>27715.8</v>
       </c>
       <c r="D88">
-        <v>70799.302148715593</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E88">
-        <v>100925.981926508</v>
+        <v>88819.998848213101</v>
       </c>
       <c r="F88">
         <v>13844.2831880374</v>
@@ -2750,10 +2750,10 @@
         <v>27715.8</v>
       </c>
       <c r="D89">
-        <v>98834.030214871498</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E89">
-        <v>101949.828337453</v>
+        <v>89462.9480002278</v>
       </c>
       <c r="F89">
         <v>14637.197154683299</v>
@@ -2776,10 +2776,10 @@
         <v>27715.8</v>
       </c>
       <c r="D90">
-        <v>99696.203021487105</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E90">
-        <v>106022.938428177</v>
+        <v>90105.8971522426</v>
       </c>
       <c r="F90">
         <v>15573.7056137081</v>
@@ -2802,10 +2802,10 @@
         <v>27715.8</v>
       </c>
       <c r="D91">
-        <v>103568.72030214799</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E91">
-        <v>107409.364978713</v>
+        <v>90748.846304257298</v>
       </c>
       <c r="F91">
         <v>13649.2400478378</v>
@@ -2828,10 +2828,10 @@
         <v>27715.8</v>
       </c>
       <c r="D92">
-        <v>105011.672030214</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E92">
-        <v>95837.894785683195</v>
+        <v>91391.795456271997</v>
       </c>
       <c r="F92">
         <v>14252.848394828399</v>
@@ -2854,10 +2854,10 @@
         <v>27715.8</v>
       </c>
       <c r="D93">
-        <v>94693.467203021399</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E93">
-        <v>100793.737235668</v>
+        <v>92034.744608286695</v>
       </c>
       <c r="F93">
         <v>13666.280124417901</v>
@@ -2880,10 +2880,10 @@
         <v>27715.8</v>
       </c>
       <c r="D94">
-        <v>99406.346720302099</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E94">
-        <v>81315.555129457003</v>
+        <v>92677.693760301394</v>
       </c>
       <c r="F94">
         <v>14704.122241892101</v>
@@ -2906,10 +2906,10 @@
         <v>27715.8</v>
       </c>
       <c r="D95">
-        <v>81790.334672030207</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E95">
-        <v>103047.76695718399</v>
+        <v>93320.642912316107</v>
       </c>
       <c r="F95">
         <v>13896.1629243815</v>
@@ -2932,10 +2932,10 @@
         <v>27715.8</v>
       </c>
       <c r="D96">
-        <v>101677.333467203</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E96">
-        <v>99127.829113810905</v>
+        <v>93963.592064330805</v>
       </c>
       <c r="F96">
         <v>14831.3868918763</v>
@@ -2958,10 +2958,10 @@
         <v>27715.8</v>
       </c>
       <c r="D97">
-        <v>98058.133346720293</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E97">
-        <v>108193.50070922999</v>
+        <v>94606.541216345504</v>
       </c>
       <c r="F97">
         <v>13138.1294433435</v>
@@ -2984,10 +2984,10 @@
         <v>27715.8</v>
       </c>
       <c r="D98">
-        <v>106414.513334672</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E98">
-        <v>106736.622804941</v>
+        <v>95249.490368360202</v>
       </c>
       <c r="F98">
         <v>12241.959312356599</v>
@@ -3010,10 +3010,10 @@
         <v>27715.8</v>
       </c>
       <c r="D99">
-        <v>105171.151333467</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E99">
-        <v>103284.45896206801</v>
+        <v>95892.439520374901</v>
       </c>
       <c r="F99">
         <v>12250.3959617153</v>
@@ -3036,10 +3036,10 @@
         <v>27715.8</v>
       </c>
       <c r="D100">
-        <v>102180.315133346</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E100">
-        <v>104526.621271194</v>
+        <v>96535.388672389599</v>
       </c>
       <c r="F100">
         <v>12041.163498240299</v>
@@ -3062,10 +3062,10 @@
         <v>27715.8</v>
       </c>
       <c r="D101">
-        <v>103441.83151333399</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E101">
-        <v>103082.801587699</v>
+        <v>97178.337824404298</v>
       </c>
       <c r="F101">
         <v>12834.077464886201</v>
@@ -3088,10 +3088,10 @@
         <v>27715.8</v>
       </c>
       <c r="D102">
-        <v>102219.783151333</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E102">
-        <v>59337.037476457197</v>
+        <v>97821.286976418996</v>
       </c>
       <c r="F102">
         <v>13770.585923911</v>
@@ -3114,10 +3114,10 @@
         <v>27715.8</v>
       </c>
       <c r="D103">
-        <v>62541.6783151333</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E103">
-        <v>96333.117692451895</v>
+        <v>98464.236128433695</v>
       </c>
       <c r="F103">
         <v>11846.1203580407</v>
@@ -3140,10 +3140,10 @@
         <v>27715.8</v>
       </c>
       <c r="D104">
-        <v>96282.067831513297</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E104">
-        <v>109452.74512173</v>
+        <v>99107.185280448495</v>
       </c>
       <c r="F104">
         <v>12449.728705031301</v>
@@ -3166,10 +3166,10 @@
         <v>27715.8</v>
       </c>
       <c r="D105">
-        <v>107917.20678315101</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E105">
-        <v>92117.000803702802</v>
+        <v>99750.134432463194</v>
       </c>
       <c r="F105">
         <v>11863.160434620801</v>
@@ -3192,10 +3192,10 @@
         <v>27715.8</v>
       </c>
       <c r="D106">
-        <v>92148.120678315099</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E106">
-        <v>94198.436299566703</v>
+        <v>100393.083584477</v>
       </c>
       <c r="F106">
         <v>12901.002552095</v>
@@ -3218,10 +3218,10 @@
         <v>27715.8</v>
       </c>
       <c r="D107">
-        <v>94180.212067831497</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E107">
-        <v>108200.120582192</v>
+        <v>101036.03273649199</v>
       </c>
       <c r="F107">
         <v>12093.0432345844</v>
@@ -3244,10 +3244,10 @@
         <v>27715.8</v>
       </c>
       <c r="D108">
-        <v>106906.021206783</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E108">
-        <v>107828.088158057</v>
+        <v>101678.981888507</v>
       </c>
       <c r="F108">
         <v>13028.2672020792</v>
@@ -3270,10 +3270,10 @@
         <v>27715.8</v>
       </c>
       <c r="D109">
-        <v>106557.702120678</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E109">
-        <v>108865.02698141801</v>
+        <v>102321.931040522</v>
       </c>
       <c r="F109">
         <v>11335.009753546399</v>
@@ -3296,10 +3296,10 @@
         <v>27715.8</v>
       </c>
       <c r="D110">
-        <v>107606.470212067</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E110">
-        <v>111493.39843542701</v>
+        <v>102964.880192536</v>
       </c>
       <c r="F110">
         <v>10438.839622559501</v>
@@ -3322,10 +3322,10 @@
         <v>27715.8</v>
       </c>
       <c r="D111">
-        <v>110099.947021206</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E111">
-        <v>110415.289721639</v>
+        <v>103607.82934455101</v>
       </c>
       <c r="F111">
         <v>10447.276271918199</v>
@@ -3348,10 +3348,10 @@
         <v>27715.8</v>
       </c>
       <c r="D112">
-        <v>109221.59470212</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E112">
-        <v>103468.172775313</v>
+        <v>104250.778496566</v>
       </c>
       <c r="F112">
         <v>10238.043808443201</v>
@@ -3374,10 +3374,10 @@
         <v>27715.8</v>
       </c>
       <c r="D113">
-        <v>103021.859470212</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E113">
-        <v>95860.095530902399</v>
+        <v>104893.72764858</v>
       </c>
       <c r="F113">
         <v>11030.9577750891</v>
@@ -3400,10 +3400,10 @@
         <v>27715.8</v>
       </c>
       <c r="D114">
-        <v>96209.885947021205</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E114">
-        <v>97974.239208680097</v>
+        <v>105536.676800595</v>
       </c>
       <c r="F114">
         <v>11967.466234113799</v>
@@ -3426,10 +3426,10 @@
         <v>27715.8</v>
       </c>
       <c r="D115">
-        <v>98175.588594702102</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E115">
-        <v>102995.23204767601</v>
+        <v>106179.62595261</v>
       </c>
       <c r="F115">
         <v>10043.0006682436</v>
@@ -3452,10 +3452,10 @@
         <v>27715.8</v>
       </c>
       <c r="D116">
-        <v>102710.15885947</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E116">
-        <v>20893.6004472854</v>
+        <v>106822.575104624</v>
       </c>
       <c r="F116">
         <v>10646.6090152342</v>
@@ -3478,10 +3478,10 @@
         <v>27715.8</v>
       </c>
       <c r="D117">
-        <v>28051.415885947001</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E117">
-        <v>38973.463246990599</v>
+        <v>107465.52425663899</v>
       </c>
       <c r="F117">
         <v>10060.0407448236</v>
@@ -3504,10 +3504,10 @@
         <v>27715.8</v>
       </c>
       <c r="D118">
-        <v>44578.641588594699</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E118">
-        <v>90688.837834731996</v>
+        <v>108108.473408654</v>
       </c>
       <c r="F118">
         <v>11097.8828622979</v>
@@ -3530,10 +3530,10 @@
         <v>27715.8</v>
       </c>
       <c r="D119">
-        <v>90992.864158859404</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E119">
-        <v>107094.36988838</v>
+        <v>108751.422560669</v>
       </c>
       <c r="F119">
         <v>10289.9235447873</v>
@@ -3556,10 +3556,10 @@
         <v>27715.8</v>
       </c>
       <c r="D120">
-        <v>105400.18641588499</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E120">
-        <v>100377.84980379</v>
+        <v>109394.371712683</v>
       </c>
       <c r="F120">
         <v>11225.147512281999</v>
@@ -3582,10 +3582,10 @@
         <v>27715.8</v>
       </c>
       <c r="D121">
-        <v>99251.218641588595</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E121">
-        <v>71313.461312990694</v>
+        <v>110037.32086469801</v>
       </c>
       <c r="F121">
         <v>9531.8900637493098</v>
@@ -3608,10 +3608,10 @@
         <v>27715.8</v>
       </c>
       <c r="D122">
-        <v>72972.821864158803</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E122">
-        <v>36646.2509457415</v>
+        <v>110680.270016713</v>
       </c>
       <c r="F122">
         <v>8635.7199327624494</v>
@@ -3634,10 +3634,10 @@
         <v>27715.8</v>
       </c>
       <c r="D123">
-        <v>41574.682186415797</v>
+        <v>33645.979399999997</v>
       </c>
       <c r="E123">
-        <v>31883.755760184002</v>
+        <v>111323.219168727</v>
       </c>
       <c r="F123">
         <v>8644.1565821211098</v>
@@ -3652,5 +3652,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>